--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{008D9D4E-A250-406B-A4A4-9DDC8AD5605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84075EEA-81AD-420C-BA96-CD829894577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12195" yWindow="225" windowWidth="16605" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,9 @@
     <sheet name="EV Batteries" sheetId="5" r:id="rId3"/>
     <sheet name="EV Sigmoid Fitting" sheetId="10" r:id="rId4"/>
     <sheet name="Calculations" sheetId="7" r:id="rId5"/>
-    <sheet name="BGBSC" sheetId="6" r:id="rId6"/>
+    <sheet name="SYGBSC" sheetId="11" r:id="rId6"/>
+    <sheet name="BGBSC" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ec_50">'EV Sigmoid Fitting'!$B$4</definedName>
     <definedName name="max">'EV Sigmoid Fitting'!$B$3</definedName>
@@ -80,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -308,6 +305,9 @@
   <si>
     <t>data from the BNEF EVO.</t>
   </si>
+  <si>
+    <t>Colorado</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +472,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -520,6 +520,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -664,112 +665,106 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[2]EV Batteries'!$B$9:$Y$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="24"/>
+              <c:pt idx="0">
+                <c:v>2017</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2018</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2040</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[2]EV Batteries'!$B$13:$Y$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1210000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="24"/>
+              <c:pt idx="0">
+                <c:v>1210000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10600000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>40000000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>55000000</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>72000000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -1019,15 +1014,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1052,184 +1039,178 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$G$2:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2375000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3875000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5375000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10375000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13625000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17125000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29250000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33375000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36625000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42625000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45250000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47375000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49375000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51625000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54125000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2375000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1750000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2500000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3875000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5375000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7000000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8500000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10375000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13625000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17125000</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25500000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29250000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>33375000</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36625000</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39750000</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42625000</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45250000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>47375000</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49375000</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51625000</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>54125000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1242,15 +1223,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ycalc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ycalc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1275,214 +1248,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$2:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1389132.164056371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021843.2718926258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2835096.85528416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3872186.6405841364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5181480.7302558515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6813588.8256108928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8816233.2840826623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11226473.258701244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14060660.844756193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17303745.690459114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20900972.172630183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24755807.045043826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28737059.300076034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32695224.467196576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36484206.532142162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39982014.338317864</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43104531.090709515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45809663.601785377</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48092978.656097099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49978278.595441304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51506844.678802423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52727977.781544022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53692031.914074436</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54446041.034588695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55031465.127539933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55483417.471983574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55830797.702772141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56096900.262841031</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56300214.433481641</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56455248.150785372</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56573288.007629298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56663058.09199407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>1389132.164056371</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021843.2718926258</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2835096.85528416</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3872186.6405841364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5181480.7302558515</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6813588.8256108928</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8816233.2840826623</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11226473.258701244</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14060660.844756193</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17303745.690459114</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20900972.172630183</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>24755807.045043826</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28737059.300076034</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>32695224.467196576</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36484206.532142162</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39982014.338317864</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>43104531.090709515</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45809663.601785377</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>48092978.656097099</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49978278.595441304</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51506844.678802423</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>52727977.781544022</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>53692031.914074436</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>54446041.034588695</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>55031465.127539933</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>55483417.471983574</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>55830797.702772141</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>56096900.262841031</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>56300214.433481641</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>56455248.150785372</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>56573288.007629298</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>56663058.09199407</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1763,15 +1730,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1796,184 +1755,178 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$G$2:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2375000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3875000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5375000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10375000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13625000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17125000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29250000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33375000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36625000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42625000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45250000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47375000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49375000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51625000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54125000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2375000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1750000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2500000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3875000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5375000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7000000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8500000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10375000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13625000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17125000</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25500000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29250000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>33375000</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36625000</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39750000</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42625000</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45250000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>47375000</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49375000</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51625000</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>54125000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1986,15 +1939,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ycalc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ycalc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2019,214 +1964,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$2:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1389132.164056371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021843.2718926258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2835096.85528416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3872186.6405841364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5181480.7302558515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6813588.8256108928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8816233.2840826623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11226473.258701244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14060660.844756193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17303745.690459114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20900972.172630183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24755807.045043826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28737059.300076034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32695224.467196576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36484206.532142162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39982014.338317864</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43104531.090709515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45809663.601785377</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48092978.656097099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49978278.595441304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51506844.678802423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52727977.781544022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53692031.914074436</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54446041.034588695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55031465.127539933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55483417.471983574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55830797.702772141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56096900.262841031</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56300214.433481641</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56455248.150785372</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56573288.007629298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56663058.09199407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>1389132.164056371</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021843.2718926258</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2835096.85528416</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3872186.6405841364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5181480.7302558515</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6813588.8256108928</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8816233.2840826623</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11226473.258701244</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14060660.844756193</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17303745.690459114</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20900972.172630183</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>24755807.045043826</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28737059.300076034</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>32695224.467196576</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36484206.532142162</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39982014.338317864</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>43104531.090709515</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45809663.601785377</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>48092978.656097099</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49978278.595441304</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51506844.678802423</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>52727977.781544022</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>53692031.914074436</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>54446041.034588695</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>55031465.127539933</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>55483417.471983574</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>55830797.702772141</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>56096900.262841031</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>56300214.433481641</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>56455248.150785372</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>56573288.007629298</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>56663058.09199407</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2537,15 +2476,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales (MWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales (MWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2572,154 +2503,148 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$12:$AG$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490909.09090909094</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>751818.18181818188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1012727.2727272727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1273636.3636363638</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1534545.4545454548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1795454.5454545456</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2056363.6363636365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2317272.7272727275</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2578181.8181818184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2839090.9090909096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>230000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>490909.09090909094</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>751818.18181818188</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1012727.2727272727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1273636.3636363638</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1534545.4545454548</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1795454.5454545456</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2056363.6363636365</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2317272.7272727275</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2578181.8181818184</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2839090.9090909096</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>3100000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2732,15 +2657,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2767,148 +2684,142 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$13:$AK$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="12">
-                  <c:v>3424790.5975175635</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3746501.3723235992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4059905.3441759855</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4360313.8003408825</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4643834.5503812227</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4907531.6444603689</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5149479.4152991604</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5368721.7605243968</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5565159.8514983393</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5739396.454520884</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="12">
+                <c:v>3424790.5975175635</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3746501.3723235992</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>4059905.3441759855</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>4360313.8003408825</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>4643834.5503812227</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>4907531.6444603689</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>5149479.4152991604</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>5368721.7605243968</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>5565159.8514983393</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>5739396.454520884</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2921,15 +2832,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2956,148 +2859,142 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$14:$AK$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="22">
-                  <c:v>5892563.6833218094</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6026155.5256387582</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6141879.3779363325</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6241534.0085637206</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6326915.950859325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6399752.6614421792</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6461658.7298551602</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6514110.623151809</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6558435.4749555839</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6595809.921999068</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="22">
+                <c:v>5892563.6833218094</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>6026155.5256387582</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>6141879.3779363325</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>6241534.0085637206</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>6326915.950859325</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>6399752.6614421792</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>6461658.7298551602</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>6514110.623151809</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>6558435.4749555839</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>6595809.921999068</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -3373,15 +3270,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery cap, cumulative (MWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery cap, cumulative (MWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3408,214 +3297,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$C$16:$AH$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$C$17:$AH$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2730000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3220909.0909090908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3972727.2727272725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4985454.5454545449</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6259090.9090909082</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7793636.3636363633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9589090.9090909082</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11645454.545454545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13962727.272727273</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16540909.090909092</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19380000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25904790.597517565</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29651291.969841164</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33711197.314017147</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38071511.11435803</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42715345.664739251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47622877.309199616</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52772356.724498779</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58141078.485023178</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63706238.336521521</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69445634.791042402</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75338198.474364206</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81364354.000002965</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87506233.377939299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>93747767.386503026</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100074683.33736235</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>106474435.99880452</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112936094.72865969</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>119450205.3518115</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>126008640.82676709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>132604450.74876615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2730000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3220909.0909090908</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3972727.2727272725</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4985454.5454545449</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6259090.9090909082</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7793636.3636363633</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9589090.9090909082</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11645454.545454545</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13962727.272727273</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>16540909.090909092</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>19380000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>22480000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>25904790.597517565</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>29651291.969841164</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>33711197.314017147</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>38071511.11435803</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42715345.664739251</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>47622877.309199616</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>52772356.724498779</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>58141078.485023178</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>63706238.336521521</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>69445634.791042402</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>75338198.474364206</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>81364354.000002965</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>87506233.377939299</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>93747767.386503026</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>100074683.33736235</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>106474435.99880452</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>112936094.72865969</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>119450205.3518115</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>126008640.82676709</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>132604450.74876615</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -7136,1126 +7019,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="G1" t="str">
-            <v>y</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>ycalc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>2019</v>
-          </cell>
-          <cell r="G2">
-            <v>2375000</v>
-          </cell>
-          <cell r="H2">
-            <v>1389132.164056371</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>2020</v>
-          </cell>
-          <cell r="G3">
-            <v>1750000</v>
-          </cell>
-          <cell r="H3">
-            <v>2021843.2718926258</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>2021</v>
-          </cell>
-          <cell r="G4">
-            <v>2500000</v>
-          </cell>
-          <cell r="H4">
-            <v>2835096.85528416</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>2022</v>
-          </cell>
-          <cell r="G5">
-            <v>3875000</v>
-          </cell>
-          <cell r="H5">
-            <v>3872186.6405841364</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>2023</v>
-          </cell>
-          <cell r="G6">
-            <v>5375000</v>
-          </cell>
-          <cell r="H6">
-            <v>5181480.7302558515</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>2024</v>
-          </cell>
-          <cell r="G7">
-            <v>7000000</v>
-          </cell>
-          <cell r="H7">
-            <v>6813588.8256108928</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>2025</v>
-          </cell>
-          <cell r="G8">
-            <v>8500000</v>
-          </cell>
-          <cell r="H8">
-            <v>8816233.2840826623</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>2026</v>
-          </cell>
-          <cell r="G9">
-            <v>10375000</v>
-          </cell>
-          <cell r="H9">
-            <v>11226473.258701244</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>2027</v>
-          </cell>
-          <cell r="G10">
-            <v>13625000</v>
-          </cell>
-          <cell r="H10">
-            <v>14060660.844756193</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>2028</v>
-          </cell>
-          <cell r="G11">
-            <v>17125000</v>
-          </cell>
-          <cell r="H11">
-            <v>17303745.690459114</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>2029</v>
-          </cell>
-          <cell r="G12">
-            <v>21000000</v>
-          </cell>
-          <cell r="H12">
-            <v>20900972.172630183</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2030</v>
-          </cell>
-          <cell r="G13">
-            <v>25500000</v>
-          </cell>
-          <cell r="H13">
-            <v>24755807.045043826</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>2031</v>
-          </cell>
-          <cell r="G14">
-            <v>29250000</v>
-          </cell>
-          <cell r="H14">
-            <v>28737059.300076034</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>2032</v>
-          </cell>
-          <cell r="G15">
-            <v>33375000</v>
-          </cell>
-          <cell r="H15">
-            <v>32695224.467196576</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>2033</v>
-          </cell>
-          <cell r="G16">
-            <v>36625000</v>
-          </cell>
-          <cell r="H16">
-            <v>36484206.532142162</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>2034</v>
-          </cell>
-          <cell r="G17">
-            <v>39750000</v>
-          </cell>
-          <cell r="H17">
-            <v>39982014.338317864</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>2035</v>
-          </cell>
-          <cell r="G18">
-            <v>42625000</v>
-          </cell>
-          <cell r="H18">
-            <v>43104531.090709515</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>2036</v>
-          </cell>
-          <cell r="G19">
-            <v>45250000</v>
-          </cell>
-          <cell r="H19">
-            <v>45809663.601785377</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>2037</v>
-          </cell>
-          <cell r="G20">
-            <v>47375000</v>
-          </cell>
-          <cell r="H20">
-            <v>48092978.656097099</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>2038</v>
-          </cell>
-          <cell r="G21">
-            <v>49375000</v>
-          </cell>
-          <cell r="H21">
-            <v>49978278.595441304</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2039</v>
-          </cell>
-          <cell r="G22">
-            <v>51625000</v>
-          </cell>
-          <cell r="H22">
-            <v>51506844.678802423</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>2040</v>
-          </cell>
-          <cell r="G23">
-            <v>54125000</v>
-          </cell>
-          <cell r="H23">
-            <v>52727977.781544022</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>2041</v>
-          </cell>
-          <cell r="H24">
-            <v>53692031.914074436</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>2042</v>
-          </cell>
-          <cell r="H25">
-            <v>54446041.034588695</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>2043</v>
-          </cell>
-          <cell r="H26">
-            <v>55031465.127539933</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>2044</v>
-          </cell>
-          <cell r="H27">
-            <v>55483417.471983574</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>2045</v>
-          </cell>
-          <cell r="H28">
-            <v>55830797.702772141</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>2046</v>
-          </cell>
-          <cell r="H29">
-            <v>56096900.262841031</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>2047</v>
-          </cell>
-          <cell r="H30">
-            <v>56300214.433481641</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>2048</v>
-          </cell>
-          <cell r="H31">
-            <v>56455248.150785372</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>2049</v>
-          </cell>
-          <cell r="H32">
-            <v>56573288.007629298</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>2050</v>
-          </cell>
-          <cell r="H33">
-            <v>56663058.09199407</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Grid Battery Storage"/>
-      <sheetName val="EV Sigmoid Fitting"/>
-      <sheetName val="EV Batteries"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="BGBSC BNEF 2022 historical data"/>
-      <sheetName val="BGBSC BNEF 2023 projection"/>
-      <sheetName val="BGBSC DOE 2022 historical data"/>
-      <sheetName val="BGBSC BNEF 2022 historic 18.9%"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4">
-            <v>2020</v>
-          </cell>
-          <cell r="C4">
-            <v>2025</v>
-          </cell>
-          <cell r="D4">
-            <v>2030</v>
-          </cell>
-          <cell r="E4">
-            <v>2035</v>
-          </cell>
-          <cell r="F4">
-            <v>2040</v>
-          </cell>
-          <cell r="G4">
-            <v>2045</v>
-          </cell>
-          <cell r="H4">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>23809.523809523806</v>
-          </cell>
-          <cell r="C6">
-            <v>154761.90476190476</v>
-          </cell>
-          <cell r="D6">
-            <v>571428.57142857148</v>
-          </cell>
-          <cell r="E6">
-            <v>1142857.142857143</v>
-          </cell>
-          <cell r="F6">
-            <v>2023809.5238095236</v>
-          </cell>
-          <cell r="G6">
-            <v>3214285.7142857141</v>
-          </cell>
-          <cell r="H6">
-            <v>4345238.0952380942</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2020</v>
-          </cell>
-          <cell r="D8">
-            <v>2021</v>
-          </cell>
-          <cell r="E8">
-            <v>2022</v>
-          </cell>
-          <cell r="F8">
-            <v>2023</v>
-          </cell>
-          <cell r="G8">
-            <v>2024</v>
-          </cell>
-          <cell r="H8">
-            <v>2025</v>
-          </cell>
-          <cell r="I8">
-            <v>2026</v>
-          </cell>
-          <cell r="J8">
-            <v>2027</v>
-          </cell>
-          <cell r="K8">
-            <v>2028</v>
-          </cell>
-          <cell r="L8">
-            <v>2029</v>
-          </cell>
-          <cell r="M8">
-            <v>2030</v>
-          </cell>
-          <cell r="N8">
-            <v>2031</v>
-          </cell>
-          <cell r="O8">
-            <v>2032</v>
-          </cell>
-          <cell r="P8">
-            <v>2033</v>
-          </cell>
-          <cell r="Q8">
-            <v>2034</v>
-          </cell>
-          <cell r="R8">
-            <v>2035</v>
-          </cell>
-          <cell r="S8">
-            <v>2036</v>
-          </cell>
-          <cell r="T8">
-            <v>2037</v>
-          </cell>
-          <cell r="U8">
-            <v>2038</v>
-          </cell>
-          <cell r="V8">
-            <v>2039</v>
-          </cell>
-          <cell r="W8">
-            <v>2040</v>
-          </cell>
-          <cell r="X8">
-            <v>2041</v>
-          </cell>
-          <cell r="Y8">
-            <v>2042</v>
-          </cell>
-          <cell r="Z8">
-            <v>2043</v>
-          </cell>
-          <cell r="AA8">
-            <v>2044</v>
-          </cell>
-          <cell r="AB8">
-            <v>2045</v>
-          </cell>
-          <cell r="AC8">
-            <v>2046</v>
-          </cell>
-          <cell r="AD8">
-            <v>2047</v>
-          </cell>
-          <cell r="AE8">
-            <v>2048</v>
-          </cell>
-          <cell r="AF8">
-            <v>2049</v>
-          </cell>
-          <cell r="AG8">
-            <v>2050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="B9">
-            <v>2017</v>
-          </cell>
-          <cell r="C9">
-            <v>2018</v>
-          </cell>
-          <cell r="D9">
-            <v>2019</v>
-          </cell>
-          <cell r="E9">
-            <v>2020</v>
-          </cell>
-          <cell r="F9">
-            <v>2021</v>
-          </cell>
-          <cell r="G9">
-            <v>2022</v>
-          </cell>
-          <cell r="H9">
-            <v>2023</v>
-          </cell>
-          <cell r="I9">
-            <v>2024</v>
-          </cell>
-          <cell r="J9">
-            <v>2025</v>
-          </cell>
-          <cell r="K9">
-            <v>2026</v>
-          </cell>
-          <cell r="L9">
-            <v>2027</v>
-          </cell>
-          <cell r="M9">
-            <v>2028</v>
-          </cell>
-          <cell r="N9">
-            <v>2029</v>
-          </cell>
-          <cell r="O9">
-            <v>2030</v>
-          </cell>
-          <cell r="P9">
-            <v>2031</v>
-          </cell>
-          <cell r="Q9">
-            <v>2032</v>
-          </cell>
-          <cell r="R9">
-            <v>2033</v>
-          </cell>
-          <cell r="S9">
-            <v>2034</v>
-          </cell>
-          <cell r="T9">
-            <v>2035</v>
-          </cell>
-          <cell r="U9">
-            <v>2036</v>
-          </cell>
-          <cell r="V9">
-            <v>2037</v>
-          </cell>
-          <cell r="W9">
-            <v>2038</v>
-          </cell>
-          <cell r="X9">
-            <v>2039</v>
-          </cell>
-          <cell r="Y9">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>230</v>
-          </cell>
-          <cell r="E10">
-            <v>490.90909090909093</v>
-          </cell>
-          <cell r="F10">
-            <v>751.81818181818187</v>
-          </cell>
-          <cell r="G10">
-            <v>1012.7272727272727</v>
-          </cell>
-          <cell r="H10">
-            <v>1273.6363636363637</v>
-          </cell>
-          <cell r="I10">
-            <v>1534.5454545454547</v>
-          </cell>
-          <cell r="J10">
-            <v>1795.4545454545457</v>
-          </cell>
-          <cell r="K10">
-            <v>2056.3636363636365</v>
-          </cell>
-          <cell r="L10">
-            <v>2317.2727272727275</v>
-          </cell>
-          <cell r="M10">
-            <v>2578.1818181818185</v>
-          </cell>
-          <cell r="N10">
-            <v>2839.0909090909095</v>
-          </cell>
-          <cell r="O10">
-            <v>3100</v>
-          </cell>
-          <cell r="P10">
-            <v>3424.7905975175636</v>
-          </cell>
-          <cell r="Q10">
-            <v>3746.5013723235993</v>
-          </cell>
-          <cell r="R10">
-            <v>4059.9053441759856</v>
-          </cell>
-          <cell r="S10">
-            <v>4360.3138003408822</v>
-          </cell>
-          <cell r="T10">
-            <v>4643.8345503812225</v>
-          </cell>
-          <cell r="U10">
-            <v>4907.5316444603686</v>
-          </cell>
-          <cell r="V10">
-            <v>5149.4794152991608</v>
-          </cell>
-          <cell r="W10">
-            <v>5368.7217605243968</v>
-          </cell>
-          <cell r="X10">
-            <v>5565.1598514983398</v>
-          </cell>
-          <cell r="Y10">
-            <v>5739.3964545208837</v>
-          </cell>
-          <cell r="Z10">
-            <v>5892.5636833218095</v>
-          </cell>
-          <cell r="AA10">
-            <v>6026.1555256387583</v>
-          </cell>
-          <cell r="AB10">
-            <v>6141.8793779363323</v>
-          </cell>
-          <cell r="AC10">
-            <v>6241.5340085637208</v>
-          </cell>
-          <cell r="AD10">
-            <v>6326.9159508593248</v>
-          </cell>
-          <cell r="AE10">
-            <v>6399.7526614421795</v>
-          </cell>
-          <cell r="AF10">
-            <v>6461.6587298551603</v>
-          </cell>
-          <cell r="AG10">
-            <v>6514.1106231518088</v>
-          </cell>
-          <cell r="AH10">
-            <v>6558.4354749555841</v>
-          </cell>
-          <cell r="AI10">
-            <v>6595.8099219990681</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1210000</v>
-          </cell>
-          <cell r="G13">
-            <v>10600000</v>
-          </cell>
-          <cell r="J13">
-            <v>21000000</v>
-          </cell>
-          <cell r="O13">
-            <v>40000000</v>
-          </cell>
-          <cell r="T13">
-            <v>55000000</v>
-          </cell>
-          <cell r="Y13">
-            <v>72000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="11">
-          <cell r="B11">
-            <v>2019</v>
-          </cell>
-          <cell r="C11">
-            <v>2020</v>
-          </cell>
-          <cell r="D11">
-            <v>2021</v>
-          </cell>
-          <cell r="E11">
-            <v>2022</v>
-          </cell>
-          <cell r="F11">
-            <v>2023</v>
-          </cell>
-          <cell r="G11">
-            <v>2024</v>
-          </cell>
-          <cell r="H11">
-            <v>2025</v>
-          </cell>
-          <cell r="I11">
-            <v>2026</v>
-          </cell>
-          <cell r="J11">
-            <v>2027</v>
-          </cell>
-          <cell r="K11">
-            <v>2028</v>
-          </cell>
-          <cell r="L11">
-            <v>2029</v>
-          </cell>
-          <cell r="M11">
-            <v>2030</v>
-          </cell>
-          <cell r="N11">
-            <v>2031</v>
-          </cell>
-          <cell r="O11">
-            <v>2032</v>
-          </cell>
-          <cell r="P11">
-            <v>2033</v>
-          </cell>
-          <cell r="Q11">
-            <v>2034</v>
-          </cell>
-          <cell r="R11">
-            <v>2035</v>
-          </cell>
-          <cell r="S11">
-            <v>2036</v>
-          </cell>
-          <cell r="T11">
-            <v>2037</v>
-          </cell>
-          <cell r="U11">
-            <v>2038</v>
-          </cell>
-          <cell r="V11">
-            <v>2039</v>
-          </cell>
-          <cell r="W11">
-            <v>2040</v>
-          </cell>
-          <cell r="X11">
-            <v>2041</v>
-          </cell>
-          <cell r="Y11">
-            <v>2042</v>
-          </cell>
-          <cell r="Z11">
-            <v>2043</v>
-          </cell>
-          <cell r="AA11">
-            <v>2044</v>
-          </cell>
-          <cell r="AB11">
-            <v>2045</v>
-          </cell>
-          <cell r="AC11">
-            <v>2046</v>
-          </cell>
-          <cell r="AD11">
-            <v>2047</v>
-          </cell>
-          <cell r="AE11">
-            <v>2048</v>
-          </cell>
-          <cell r="AF11">
-            <v>2049</v>
-          </cell>
-          <cell r="AG11">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EV battery new sales (MWh)</v>
-          </cell>
-          <cell r="B12">
-            <v>230000</v>
-          </cell>
-          <cell r="C12">
-            <v>490909.09090909094</v>
-          </cell>
-          <cell r="D12">
-            <v>751818.18181818188</v>
-          </cell>
-          <cell r="E12">
-            <v>1012727.2727272727</v>
-          </cell>
-          <cell r="F12">
-            <v>1273636.3636363638</v>
-          </cell>
-          <cell r="G12">
-            <v>1534545.4545454548</v>
-          </cell>
-          <cell r="H12">
-            <v>1795454.5454545456</v>
-          </cell>
-          <cell r="I12">
-            <v>2056363.6363636365</v>
-          </cell>
-          <cell r="J12">
-            <v>2317272.7272727275</v>
-          </cell>
-          <cell r="K12">
-            <v>2578181.8181818184</v>
-          </cell>
-          <cell r="L12">
-            <v>2839090.9090909096</v>
-          </cell>
-          <cell r="M12">
-            <v>3100000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EV battery new sales, extrapolated 2031-2040 (GWh)</v>
-          </cell>
-          <cell r="N13">
-            <v>3424790.5975175635</v>
-          </cell>
-          <cell r="O13">
-            <v>3746501.3723235992</v>
-          </cell>
-          <cell r="P13">
-            <v>4059905.3441759855</v>
-          </cell>
-          <cell r="Q13">
-            <v>4360313.8003408825</v>
-          </cell>
-          <cell r="R13">
-            <v>4643834.5503812227</v>
-          </cell>
-          <cell r="S13">
-            <v>4907531.6444603689</v>
-          </cell>
-          <cell r="T13">
-            <v>5149479.4152991604</v>
-          </cell>
-          <cell r="U13">
-            <v>5368721.7605243968</v>
-          </cell>
-          <cell r="V13">
-            <v>5565159.8514983393</v>
-          </cell>
-          <cell r="W13">
-            <v>5739396.454520884</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>EV battery new sales, extrapolated 2041-2050 (GWh)</v>
-          </cell>
-          <cell r="X14">
-            <v>5892563.6833218094</v>
-          </cell>
-          <cell r="Y14">
-            <v>6026155.5256387582</v>
-          </cell>
-          <cell r="Z14">
-            <v>6141879.3779363325</v>
-          </cell>
-          <cell r="AA14">
-            <v>6241534.0085637206</v>
-          </cell>
-          <cell r="AB14">
-            <v>6326915.950859325</v>
-          </cell>
-          <cell r="AC14">
-            <v>6399752.6614421792</v>
-          </cell>
-          <cell r="AD14">
-            <v>6461658.7298551602</v>
-          </cell>
-          <cell r="AE14">
-            <v>6514110.623151809</v>
-          </cell>
-          <cell r="AF14">
-            <v>6558435.4749555839</v>
-          </cell>
-          <cell r="AG14">
-            <v>6595809.921999068</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>2019</v>
-          </cell>
-          <cell r="D16">
-            <v>2020</v>
-          </cell>
-          <cell r="E16">
-            <v>2021</v>
-          </cell>
-          <cell r="F16">
-            <v>2022</v>
-          </cell>
-          <cell r="G16">
-            <v>2023</v>
-          </cell>
-          <cell r="H16">
-            <v>2024</v>
-          </cell>
-          <cell r="I16">
-            <v>2025</v>
-          </cell>
-          <cell r="J16">
-            <v>2026</v>
-          </cell>
-          <cell r="K16">
-            <v>2027</v>
-          </cell>
-          <cell r="L16">
-            <v>2028</v>
-          </cell>
-          <cell r="M16">
-            <v>2029</v>
-          </cell>
-          <cell r="N16">
-            <v>2030</v>
-          </cell>
-          <cell r="O16">
-            <v>2031</v>
-          </cell>
-          <cell r="P16">
-            <v>2032</v>
-          </cell>
-          <cell r="Q16">
-            <v>2033</v>
-          </cell>
-          <cell r="R16">
-            <v>2034</v>
-          </cell>
-          <cell r="S16">
-            <v>2035</v>
-          </cell>
-          <cell r="T16">
-            <v>2036</v>
-          </cell>
-          <cell r="U16">
-            <v>2037</v>
-          </cell>
-          <cell r="V16">
-            <v>2038</v>
-          </cell>
-          <cell r="W16">
-            <v>2039</v>
-          </cell>
-          <cell r="X16">
-            <v>2040</v>
-          </cell>
-          <cell r="Y16">
-            <v>2041</v>
-          </cell>
-          <cell r="Z16">
-            <v>2042</v>
-          </cell>
-          <cell r="AA16">
-            <v>2043</v>
-          </cell>
-          <cell r="AB16">
-            <v>2044</v>
-          </cell>
-          <cell r="AC16">
-            <v>2045</v>
-          </cell>
-          <cell r="AD16">
-            <v>2046</v>
-          </cell>
-          <cell r="AE16">
-            <v>2047</v>
-          </cell>
-          <cell r="AF16">
-            <v>2048</v>
-          </cell>
-          <cell r="AG16">
-            <v>2049</v>
-          </cell>
-          <cell r="AH16">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>EV battery cap, cumulative (MWh)</v>
-          </cell>
-          <cell r="C17">
-            <v>2730000</v>
-          </cell>
-          <cell r="D17">
-            <v>3220909.0909090908</v>
-          </cell>
-          <cell r="E17">
-            <v>3972727.2727272725</v>
-          </cell>
-          <cell r="F17">
-            <v>4985454.5454545449</v>
-          </cell>
-          <cell r="G17">
-            <v>6259090.9090909082</v>
-          </cell>
-          <cell r="H17">
-            <v>7793636.3636363633</v>
-          </cell>
-          <cell r="I17">
-            <v>9589090.9090909082</v>
-          </cell>
-          <cell r="J17">
-            <v>11645454.545454545</v>
-          </cell>
-          <cell r="K17">
-            <v>13962727.272727273</v>
-          </cell>
-          <cell r="L17">
-            <v>16540909.090909092</v>
-          </cell>
-          <cell r="M17">
-            <v>19380000</v>
-          </cell>
-          <cell r="N17">
-            <v>22480000</v>
-          </cell>
-          <cell r="O17">
-            <v>25904790.597517565</v>
-          </cell>
-          <cell r="P17">
-            <v>29651291.969841164</v>
-          </cell>
-          <cell r="Q17">
-            <v>33711197.314017147</v>
-          </cell>
-          <cell r="R17">
-            <v>38071511.11435803</v>
-          </cell>
-          <cell r="S17">
-            <v>42715345.664739251</v>
-          </cell>
-          <cell r="T17">
-            <v>47622877.309199616</v>
-          </cell>
-          <cell r="U17">
-            <v>52772356.724498779</v>
-          </cell>
-          <cell r="V17">
-            <v>58141078.485023178</v>
-          </cell>
-          <cell r="W17">
-            <v>63706238.336521521</v>
-          </cell>
-          <cell r="X17">
-            <v>69445634.791042402</v>
-          </cell>
-          <cell r="Y17">
-            <v>75338198.474364206</v>
-          </cell>
-          <cell r="Z17">
-            <v>81364354.000002965</v>
-          </cell>
-          <cell r="AA17">
-            <v>87506233.377939299</v>
-          </cell>
-          <cell r="AB17">
-            <v>93747767.386503026</v>
-          </cell>
-          <cell r="AC17">
-            <v>100074683.33736235</v>
-          </cell>
-          <cell r="AD17">
-            <v>106474435.99880452</v>
-          </cell>
-          <cell r="AE17">
-            <v>112936094.72865969</v>
-          </cell>
-          <cell r="AF17">
-            <v>119450205.3518115</v>
-          </cell>
-          <cell r="AG17">
-            <v>126008640.82676709</v>
-          </cell>
-          <cell r="AH17">
-            <v>132604450.74876615</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8519,7 +7282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -8530,12 +7293,18 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="25">
+        <v>45302</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8543,62 +7312,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -10712,131 +9481,99 @@
         <v>21</v>
       </c>
       <c r="B6" s="13">
-        <f>'[2]Grid Battery Storage'!B6</f>
         <v>23809.523809523806</v>
       </c>
       <c r="C6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!C8)</f>
         <v>23809.52380952239</v>
       </c>
       <c r="D6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!D8)</f>
         <v>50000</v>
       </c>
       <c r="E6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!E8)</f>
         <v>76190.47619047761</v>
       </c>
       <c r="F6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!F8)</f>
         <v>102380.95238095522</v>
       </c>
       <c r="G6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!G8)</f>
         <v>128571.42857143283</v>
       </c>
       <c r="H6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!H8)</f>
         <v>154761.90476190299</v>
       </c>
       <c r="I6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!I8)</f>
         <v>238095.2380952239</v>
       </c>
       <c r="J6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!J8)</f>
         <v>321428.57142856717</v>
       </c>
       <c r="K6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!K8)</f>
         <v>404761.90476191044</v>
       </c>
       <c r="L6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!L8)</f>
         <v>488095.2380952239</v>
       </c>
       <c r="M6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!M8)</f>
         <v>571428.57142856717</v>
       </c>
       <c r="N6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!N8)</f>
         <v>685714.28571429849</v>
       </c>
       <c r="O6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!O8)</f>
         <v>800000</v>
       </c>
       <c r="P6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!P8)</f>
         <v>914285.71428573132</v>
       </c>
       <c r="Q6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!Q8)</f>
         <v>1028571.4285714328</v>
       </c>
       <c r="R6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!R8)</f>
         <v>1142857.1428571343</v>
       </c>
       <c r="S6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!S8)</f>
         <v>1319047.6190475821</v>
       </c>
       <c r="T6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!T8)</f>
         <v>1495238.0952380896</v>
       </c>
       <c r="U6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!U8)</f>
         <v>1671428.5714285374</v>
       </c>
       <c r="V6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!V8)</f>
         <v>1847619.0476190448</v>
       </c>
       <c r="W6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!W8)</f>
         <v>2023809.5238094926</v>
       </c>
       <c r="X6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!X8)</f>
         <v>2261904.7619047761</v>
       </c>
       <c r="Y6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!Y8)</f>
         <v>2500000.0000000596</v>
       </c>
       <c r="Z6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!Z8)</f>
         <v>2738095.2380952835</v>
       </c>
       <c r="AA6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!AA8)</f>
         <v>2976190.4761905074</v>
       </c>
       <c r="AB6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!AB8)</f>
         <v>3214285.7142857313</v>
       </c>
       <c r="AC6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AC8)</f>
         <v>3440476.1904761791</v>
       </c>
       <c r="AD6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AD8)</f>
         <v>3666666.6666666865</v>
       </c>
       <c r="AE6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AE8)</f>
         <v>3892857.1428571343</v>
       </c>
       <c r="AF6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AF8)</f>
         <v>4119047.6190475821</v>
       </c>
       <c r="AG6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AG8)</f>
         <v>4345238.0952380896</v>
       </c>
     </row>
@@ -10953,51 +9690,39 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <f>('[2]EV Batteries'!D10)*(1000)</f>
         <v>230000</v>
       </c>
       <c r="C12">
-        <f>('[2]EV Batteries'!E10)*(1000)</f>
         <v>490909.09090909094</v>
       </c>
       <c r="D12">
-        <f>('[2]EV Batteries'!F10)*(1000)</f>
         <v>751818.18181818188</v>
       </c>
       <c r="E12">
-        <f>('[2]EV Batteries'!G10)*(1000)</f>
         <v>1012727.2727272727</v>
       </c>
       <c r="F12">
-        <f>('[2]EV Batteries'!H10)*(1000)</f>
         <v>1273636.3636363638</v>
       </c>
       <c r="G12">
-        <f>('[2]EV Batteries'!I10)*(1000)</f>
         <v>1534545.4545454548</v>
       </c>
       <c r="H12">
-        <f>('[2]EV Batteries'!J10)*(1000)</f>
         <v>1795454.5454545456</v>
       </c>
       <c r="I12">
-        <f>('[2]EV Batteries'!K10)*(1000)</f>
         <v>2056363.6363636365</v>
       </c>
       <c r="J12">
-        <f>('[2]EV Batteries'!L10)*(1000)</f>
         <v>2317272.7272727275</v>
       </c>
       <c r="K12">
-        <f>('[2]EV Batteries'!M10)*(1000)</f>
         <v>2578181.8181818184</v>
       </c>
       <c r="L12">
-        <f>('[2]EV Batteries'!N10)*(1000)</f>
         <v>2839090.9090909096</v>
       </c>
       <c r="M12">
-        <f>('[2]EV Batteries'!O10)*(1000)</f>
         <v>3100000</v>
       </c>
     </row>
@@ -11006,43 +9731,33 @@
         <v>9</v>
       </c>
       <c r="N13">
-        <f>('[2]EV Batteries'!P10)*(1000)</f>
         <v>3424790.5975175635</v>
       </c>
       <c r="O13">
-        <f>('[2]EV Batteries'!Q10)*(1000)</f>
         <v>3746501.3723235992</v>
       </c>
       <c r="P13">
-        <f>('[2]EV Batteries'!R10)*(1000)</f>
         <v>4059905.3441759855</v>
       </c>
       <c r="Q13">
-        <f>('[2]EV Batteries'!S10)*(1000)</f>
         <v>4360313.8003408825</v>
       </c>
       <c r="R13">
-        <f>('[2]EV Batteries'!T10)*(1000)</f>
         <v>4643834.5503812227</v>
       </c>
       <c r="S13">
-        <f>('[2]EV Batteries'!U10)*(1000)</f>
         <v>4907531.6444603689</v>
       </c>
       <c r="T13">
-        <f>('[2]EV Batteries'!V10)*(1000)</f>
         <v>5149479.4152991604</v>
       </c>
       <c r="U13">
-        <f>('[2]EV Batteries'!W10)*(1000)</f>
         <v>5368721.7605243968</v>
       </c>
       <c r="V13">
-        <f>('[2]EV Batteries'!X10)*(1000)</f>
         <v>5565159.8514983393</v>
       </c>
       <c r="W13">
-        <f>('[2]EV Batteries'!Y10)*(1000)</f>
         <v>5739396.454520884</v>
       </c>
     </row>
@@ -11051,43 +9766,33 @@
         <v>10</v>
       </c>
       <c r="X14">
-        <f>('[2]EV Batteries'!Z10)*(1000)</f>
         <v>5892563.6833218094</v>
       </c>
       <c r="Y14">
-        <f>('[2]EV Batteries'!AA10)*(1000)</f>
         <v>6026155.5256387582</v>
       </c>
       <c r="Z14">
-        <f>('[2]EV Batteries'!AB10)*(1000)</f>
         <v>6141879.3779363325</v>
       </c>
       <c r="AA14">
-        <f>('[2]EV Batteries'!AC10)*(1000)</f>
         <v>6241534.0085637206</v>
       </c>
       <c r="AB14">
-        <f>('[2]EV Batteries'!AD10)*(1000)</f>
         <v>6326915.950859325</v>
       </c>
       <c r="AC14">
-        <f>('[2]EV Batteries'!AE10)*(1000)</f>
         <v>6399752.6614421792</v>
       </c>
       <c r="AD14">
-        <f>('[2]EV Batteries'!AF10)*(1000)</f>
         <v>6461658.7298551602</v>
       </c>
       <c r="AE14">
-        <f>('[2]EV Batteries'!AG10)*(1000)</f>
         <v>6514110.623151809</v>
       </c>
       <c r="AF14">
-        <f>('[2]EV Batteries'!AH10)*(1000)</f>
         <v>6558435.4749555839</v>
       </c>
       <c r="AG14">
-        <f>('[2]EV Batteries'!AI10)*(1000)</f>
         <v>6595809.921999068</v>
       </c>
     </row>
@@ -11345,251 +10050,273 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5CD56-30CC-4C38-A9B1-CB38FBF56566}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C1" sqref="C1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-      <c r="G1">
-        <v>2024</v>
-      </c>
-      <c r="H1">
-        <v>2025</v>
-      </c>
-      <c r="I1">
-        <v>2026</v>
-      </c>
-      <c r="J1">
-        <v>2027</v>
-      </c>
-      <c r="K1">
-        <v>2028</v>
-      </c>
-      <c r="L1">
-        <v>2029</v>
-      </c>
-      <c r="M1">
-        <v>2030</v>
-      </c>
-      <c r="N1">
-        <v>2031</v>
-      </c>
-      <c r="O1">
-        <v>2032</v>
-      </c>
-      <c r="P1">
-        <v>2033</v>
-      </c>
-      <c r="Q1">
-        <v>2034</v>
-      </c>
-      <c r="R1">
-        <v>2035</v>
-      </c>
-      <c r="S1">
-        <v>2036</v>
-      </c>
-      <c r="T1">
-        <v>2037</v>
-      </c>
-      <c r="U1">
-        <v>2038</v>
-      </c>
-      <c r="V1">
-        <v>2039</v>
-      </c>
-      <c r="W1">
-        <v>2040</v>
-      </c>
-      <c r="X1">
-        <v>2041</v>
-      </c>
-      <c r="Y1">
-        <v>2042</v>
-      </c>
-      <c r="Z1">
-        <v>2043</v>
-      </c>
-      <c r="AA1">
-        <v>2044</v>
-      </c>
-      <c r="AB1">
-        <v>2045</v>
-      </c>
-      <c r="AC1">
-        <v>2046</v>
-      </c>
-      <c r="AD1">
-        <v>2047</v>
-      </c>
-      <c r="AE1">
-        <v>2048</v>
-      </c>
-      <c r="AF1">
-        <v>2049</v>
-      </c>
-      <c r="AG1">
-        <v>2050</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="10">
-        <f>Calculations!B6+Calculations!C17</f>
-        <v>2753809.5238095238</v>
-      </c>
-      <c r="C2" s="10">
         <f>Calculations!C6+Calculations!D17</f>
         <v>3244718.6147186132</v>
       </c>
-      <c r="D2" s="10">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
         <f>Calculations!D6+Calculations!E17</f>
         <v>4022727.2727272725</v>
       </c>
-      <c r="E2" s="10">
+      <c r="C2" s="10">
         <f>Calculations!E6+Calculations!F17</f>
         <v>5061645.0216450226</v>
       </c>
-      <c r="F2" s="10">
+      <c r="D2" s="10">
         <f>Calculations!F6+Calculations!G17</f>
         <v>6361471.8614718635</v>
       </c>
-      <c r="G2" s="10">
+      <c r="E2" s="10">
         <f>Calculations!G6+Calculations!H17</f>
         <v>7922207.7922077961</v>
       </c>
-      <c r="H2" s="10">
+      <c r="F2" s="10">
         <f>Calculations!H6+Calculations!I17</f>
         <v>9743852.8138528112</v>
       </c>
-      <c r="I2" s="10">
+      <c r="G2" s="10">
         <f>Calculations!I6+Calculations!J17</f>
         <v>11883549.783549769</v>
       </c>
-      <c r="J2" s="10">
+      <c r="H2" s="10">
         <f>Calculations!J6+Calculations!K17</f>
         <v>14284155.844155841</v>
       </c>
-      <c r="K2" s="10">
+      <c r="I2" s="10">
         <f>Calculations!K6+Calculations!L17</f>
         <v>16945670.995671004</v>
       </c>
-      <c r="L2" s="10">
+      <c r="J2" s="10">
         <f>Calculations!L6+Calculations!M17</f>
         <v>19868095.238095224</v>
       </c>
-      <c r="M2" s="10">
+      <c r="K2" s="10">
         <f>Calculations!M6+Calculations!N17</f>
         <v>23051428.571428567</v>
       </c>
-      <c r="N2" s="10">
+      <c r="L2" s="10">
         <f>Calculations!N6+Calculations!O17</f>
         <v>26590504.883231863</v>
       </c>
-      <c r="O2" s="10">
+      <c r="M2" s="10">
         <f>Calculations!O6+Calculations!P17</f>
         <v>30451291.969841164</v>
       </c>
-      <c r="P2" s="10">
+      <c r="N2" s="10">
         <f>Calculations!P6+Calculations!Q17</f>
         <v>34625483.028302878</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="O2" s="10">
         <f>Calculations!Q6+Calculations!R17</f>
         <v>39100082.542929463</v>
       </c>
-      <c r="R2" s="10">
+      <c r="P2" s="10">
         <f>Calculations!R6+Calculations!S17</f>
         <v>43858202.807596385</v>
       </c>
-      <c r="S2" s="10">
+      <c r="Q2" s="10">
         <f>Calculations!S6+Calculations!T17</f>
         <v>48941924.928247198</v>
       </c>
-      <c r="T2" s="10">
+      <c r="R2" s="10">
         <f>Calculations!T6+Calculations!U17</f>
         <v>54267594.819736868</v>
       </c>
-      <c r="U2" s="10">
+      <c r="S2" s="10">
         <f>Calculations!U6+Calculations!V17</f>
         <v>59812507.056451716</v>
       </c>
-      <c r="V2" s="10">
+      <c r="T2" s="10">
         <f>Calculations!V6+Calculations!W17</f>
         <v>65553857.384140566</v>
       </c>
-      <c r="W2" s="10">
+      <c r="U2" s="10">
         <f>Calculations!W6+Calculations!X17</f>
         <v>71469444.314851895</v>
       </c>
-      <c r="X2" s="10">
+      <c r="V2" s="10">
         <f>Calculations!X6+Calculations!Y17</f>
         <v>77600103.236268982</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="W2" s="10">
         <f>Calculations!Y6+Calculations!Z17</f>
         <v>83864354.000003025</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="X2" s="10">
         <f>Calculations!Z6+Calculations!AA17</f>
         <v>90244328.616034582</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="Y2" s="10">
         <f>Calculations!AA6+Calculations!AB17</f>
         <v>96723957.862693533</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="Z2" s="10">
         <f>Calculations!AB6+Calculations!AC17</f>
         <v>103288969.05164808</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AA2" s="10">
         <f>Calculations!AC6+Calculations!AD17</f>
         <v>109914912.1892807</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AB2" s="10">
         <f>Calculations!AD6+Calculations!AE17</f>
         <v>116602761.39532638</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AC2" s="10">
         <f>Calculations!AE6+Calculations!AF17</f>
         <v>123343062.49466863</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AD2" s="10">
         <f>Calculations!AF6+Calculations!AG17</f>
         <v>130127688.44581467</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AE2" s="10">
         <f>Calculations!AG6+Calculations!AH17</f>
         <v>136949688.84400424</v>
       </c>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\CO\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84075EEA-81AD-420C-BA96-CD829894577B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E85CCB2B-B096-481F-B100-40DC3D928E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="225" windowWidth="16605" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="1875" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7301,7 +7301,7 @@
         <v>68</v>
       </c>
       <c r="C1" s="25">
-        <v>45302</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{84BC21BF-42D6-4DD9-BC5B-4C0B5FBDA47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF225A-7568-4778-89A3-1CD84988F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>https://about.bnef.com/electric-vehicle-outlook/</t>
-  </si>
-  <si>
-    <t>Colorado</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2841,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2852,18 +2848,12 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18">
-        <v>45531</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,57 +2861,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
